--- a/farmServer/src/main/resources/config/Item.xlsx
+++ b/farmServer/src/main/resources/config/Item.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>ItemID</t>
   </si>
@@ -47,12 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
     <t>测试道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_test_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_test_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,6 +97,54 @@
   <si>
     <t>2货物</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种农作物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛饲料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于喂养牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Animal_MilkA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Crop_Wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Folder_Cow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鲜的牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Animal_MilkB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装好的牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -468,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -491,68 +525,68 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -561,10 +595,36 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -577,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -611,28 +671,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -640,13 +700,13 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -663,12 +723,12 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/farmServer/src/main/resources/config/Item.xlsx
+++ b/farmServer/src/main/resources/config/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\Farm配置表\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>ItemID</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>罐装好的牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Fruit_Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B17:B18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,6 +637,32 @@
       </c>
       <c r="H5">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
